--- a/Results/Ger_sex_PO.xlsx
+++ b/Results/Ger_sex_PO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,77 +464,77 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>Reweighing-NN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5404421764705882</v>
+        <v>0.7545965882352942</v>
       </c>
       <c r="C2" t="n">
-        <v>1e-06</v>
+        <v>0.001730559748427686</v>
       </c>
       <c r="D2" t="n">
-        <v>1e-06</v>
+        <v>0.02080262354134957</v>
       </c>
       <c r="E2" t="n">
-        <v>1e-06</v>
+        <v>0.1166676666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>DI-RF</t>
+          <t>Reweighing-RF</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7270230588235294</v>
+        <v>0.7389715882352942</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01666766666666666</v>
+        <v>0.025001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02333940690005074</v>
+        <v>0.0136996301369863</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03333433333333333</v>
+        <v>0.050001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>DI-RF</t>
+          <t>Reweighing-RF</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7251848235294118</v>
+        <v>0.7394311470588236</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01776829559748428</v>
+        <v>0.04056703773584906</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004059853373921867</v>
+        <v>0.04667781380010147</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01666766666666668</v>
+        <v>0.03333433333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Reweighing-NN</t>
+          <t>Reweighing-RF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7545965882352942</v>
+        <v>0.7803318823529412</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001730559748427686</v>
+        <v>0.01839722641509436</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02080262354134957</v>
+        <v>0.07711921410451547</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1166676666666667</v>
+        <v>0.08333433333333337</v>
       </c>
     </row>
     <row r="6">
@@ -544,168 +544,187 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7389715882352942</v>
+        <v>0.7628686470588234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.025001</v>
+        <v>0.02893181761006292</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0136996301369863</v>
+        <v>0.0715382907153729</v>
       </c>
       <c r="E6" t="n">
-        <v>0.050001</v>
+        <v>0.06666766666666671</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Reweighing-RF</t>
+          <t>FAD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7394311470588236</v>
+        <v>0.765626</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04056703773584906</v>
+        <v>0.01540980503144656</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04667781380010147</v>
+        <v>0.0045672100456621</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03333433333333333</v>
+        <v>0.1666676666666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Reweighing-RF</t>
+          <t>FAIR-betaSF</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7803318823529412</v>
+        <v>0.8042289411764707</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01839722641509436</v>
+        <v>0.005032446540880502</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07711921410451547</v>
+        <v>0.08117806747843734</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08333433333333337</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Reweighing-RF</t>
+          <t>CLFR</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7628686470588234</v>
+        <v>0.6165577342047931</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02893181761006292</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0715382907153729</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06666766666666671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FAD</t>
+          <t>PYCO_diff</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6723355588235295</v>
+        <v>0.7658942360691332</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01257961635220125</v>
+        <v>69.56644645999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04211160375443931</v>
+        <v>0.03087939809752994</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06666766666666665</v>
+        <v>0.1071428530584487</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FAD</t>
+          <t>PYCO_diff</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.765626</v>
+        <v>0.7783719548412005</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01540980503144656</v>
+        <v>0.2197580645149212</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0045672100456621</v>
+        <v>0.04833296039387748</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1666676666666666</v>
+        <v>0.3749999999977504</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FAD</t>
+          <t>PYCO_diff</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.546876</v>
+        <v>0.7906516141806548</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01462364150943399</v>
+        <v>0.3123897707294371</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01877319685438864</v>
+        <v>0.0114119489821623</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2833343333333334</v>
+        <v>0.4642857142852629</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FAD</t>
+          <t>PYCO_non_diff</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5762877647058823</v>
+        <v>0.7280649633583319</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01383747798742139</v>
+        <v>9.574478541530734e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02181733688483004</v>
+        <v>1.271465810596459e-12</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06666766666666665</v>
+        <v>9.781573015629273e-13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FAIR-betaSF</t>
+          <t>PYCO_non_diff</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8042289411764707</v>
+        <v>0.7447019232422589</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005032446540880502</v>
+        <v>0.03341178958302643</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08117806747843734</v>
+        <v>0.002237647655063372</v>
       </c>
       <c r="E14" t="n">
-        <v>1e-06</v>
+        <v>0.05015676192952976</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>PYCO_non_diff</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7692612398485087</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1360739756046073</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02506153501971461</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2083333333404329</v>
       </c>
     </row>
   </sheetData>
